--- a/ebs_with_tracing/forms/app/hbc_followup.xlsx
+++ b/ebs_with_tracing/forms/app/hbc_followup.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-lgh\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="410">
   <si>
     <t>list_name</t>
   </si>
@@ -875,24 +875,6 @@
     <t>h1 green</t>
   </si>
   <si>
-    <t>r_following_tasks</t>
-  </si>
-  <si>
-    <t>The following tasks will appear:</t>
-  </si>
-  <si>
-    <t>r_fup_danger_sign</t>
-  </si>
-  <si>
-    <t>Please conduct a danger sign follow-up for the mother in 3 days.</t>
-  </si>
-  <si>
-    <t>r_fup_danger_sign_baby</t>
-  </si>
-  <si>
-    <t>Please conduct a danger sign follow-up for the baby in 3 days.</t>
-  </si>
-  <si>
     <t>${status} = 'alive'</t>
   </si>
   <si>
@@ -1266,6 +1248,18 @@
   </si>
   <si>
     <t>Did ${patient_name} receive Pneumonia by chest X-ray</t>
+  </si>
+  <si>
+    <t>next_visit</t>
+  </si>
+  <si>
+    <t>format-date-time(date-time(decimal-date-time(today())+ 1),"%d/%m/%Y")</t>
+  </si>
+  <si>
+    <t>next_followup</t>
+  </si>
+  <si>
+    <t>The next followup is due on : ${next_visit}</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1358,6 +1352,12 @@
       <color rgb="FF76A5AF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1506,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1661,6 +1661,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,31 +1947,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ151"/>
+  <dimension ref="A1:AJ150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="29" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="29" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="73.85546875" style="29" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="43.26953125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="14.453125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" style="29" customWidth="1"/>
+    <col min="7" max="8" width="17.453125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="37.7265625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="73.81640625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="29" customWidth="1"/>
     <col min="13" max="13" width="30" style="29" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="29" customWidth="1"/>
-    <col min="16" max="27" width="29.85546875" style="29" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="29"/>
+    <col min="14" max="15" width="14.453125" style="29" customWidth="1"/>
+    <col min="16" max="27" width="29.81640625" style="29" customWidth="1"/>
+    <col min="28" max="16384" width="14.453125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2795,7 +2798,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>35</v>
@@ -2808,7 +2811,7 @@
       <c r="I21" s="60"/>
       <c r="J21" s="60"/>
       <c r="K21" s="38" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -2840,7 +2843,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>35</v>
@@ -2853,7 +2856,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
@@ -2914,7 +2917,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>35</v>
@@ -2951,10 +2954,10 @@
         <v>239</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -2986,10 +2989,10 @@
         <v>239</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -3021,10 +3024,10 @@
         <v>239</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -3056,10 +3059,10 @@
         <v>239</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
@@ -3091,10 +3094,10 @@
         <v>239</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -3126,10 +3129,10 @@
         <v>239</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -3161,7 +3164,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -3223,7 +3226,7 @@
         <v>192</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>35</v>
@@ -3297,7 +3300,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3359,15 +3362,15 @@
         <v>192</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3398,10 +3401,10 @@
         <v>167</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3435,15 +3438,15 @@
         <v>191</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3469,18 +3472,18 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3506,18 +3509,18 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3546,7 +3549,7 @@
         <v>193</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="40"/>
@@ -3608,7 +3611,7 @@
         <v>192</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>35</v>
@@ -3616,7 +3619,7 @@
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>38</v>
@@ -3647,10 +3650,10 @@
         <v>167</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
@@ -3684,15 +3687,15 @@
         <v>202</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3721,15 +3724,15 @@
         <v>202</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3758,15 +3761,15 @@
         <v>191</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3795,7 +3798,7 @@
         <v>193</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="40"/>
@@ -3865,7 +3868,7 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>38</v>
@@ -3899,7 +3902,7 @@
         <v>235</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>56</v>
@@ -3943,7 +3946,7 @@
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -3975,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
@@ -4058,7 +4061,7 @@
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4097,7 +4100,7 @@
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4136,7 +4139,7 @@
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4175,7 +4178,7 @@
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4214,7 +4217,7 @@
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -4253,7 +4256,7 @@
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -4292,7 +4295,7 @@
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -4370,7 +4373,7 @@
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4409,7 +4412,7 @@
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -4537,7 +4540,7 @@
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="43" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>38</v>
@@ -4602,20 +4605,20 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="40" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4644,17 +4647,17 @@
         <v>191</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4680,13 +4683,13 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B73" s="50" t="s">
         <v>198</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>56</v>
@@ -4717,13 +4720,13 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>56</v>
@@ -4754,13 +4757,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>56</v>
@@ -4797,7 +4800,7 @@
         <v>199</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>56</v>
@@ -4893,15 +4896,15 @@
         <v>32</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="55"/>
       <c r="F80" s="55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>38</v>
@@ -4940,10 +4943,10 @@
         <v>191</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="55" t="s">
@@ -4953,7 +4956,7 @@
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
       <c r="I81" s="51" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J81" s="55"/>
       <c r="K81" s="55"/>
@@ -4984,13 +4987,13 @@
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="73" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="55" t="s">
@@ -5029,13 +5032,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="73" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="55" t="s">
@@ -5045,7 +5048,7 @@
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
       <c r="I83" s="55" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J83" s="55"/>
       <c r="K83" s="55"/>
@@ -5079,10 +5082,10 @@
         <v>239</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="55"/>
@@ -5122,7 +5125,7 @@
         <v>32</v>
       </c>
       <c r="B85" s="74" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C85" s="75" t="s">
         <v>35</v>
@@ -5130,7 +5133,7 @@
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
       <c r="F85" s="55" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G85" s="55"/>
       <c r="H85" s="55"/>
@@ -5162,7 +5165,7 @@
       <c r="AF85" s="55"/>
       <c r="AG85" s="55"/>
       <c r="AH85" s="76" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AI85" s="55"/>
     </row>
@@ -5171,7 +5174,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="74" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>35</v>
@@ -5184,7 +5187,7 @@
       <c r="I86" s="75"/>
       <c r="J86" s="75"/>
       <c r="K86" s="75" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L86" s="75"/>
       <c r="M86" s="75"/>
@@ -5219,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -5229,7 +5232,7 @@
       <c r="I87" s="55"/>
       <c r="J87" s="55"/>
       <c r="K87" s="75" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L87" s="55"/>
       <c r="M87" s="55"/>
@@ -5261,7 +5264,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>35</v>
@@ -5274,7 +5277,7 @@
       <c r="I88" s="55"/>
       <c r="J88" s="55"/>
       <c r="K88" s="75" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L88" s="55"/>
       <c r="M88" s="55"/>
@@ -5306,7 +5309,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C89" s="75" t="s">
         <v>35</v>
@@ -5319,7 +5322,7 @@
       <c r="I89" s="75"/>
       <c r="J89" s="75"/>
       <c r="K89" s="75" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L89" s="75"/>
       <c r="M89" s="75"/>
@@ -5351,7 +5354,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C90" s="75" t="s">
         <v>35</v>
@@ -5407,7 +5410,7 @@
       <c r="I91" s="75"/>
       <c r="J91" s="75"/>
       <c r="K91" s="75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L91" s="75"/>
       <c r="M91" s="75"/>
@@ -5452,7 +5455,7 @@
       <c r="I92" s="75"/>
       <c r="J92" s="75"/>
       <c r="K92" s="75" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L92" s="75"/>
       <c r="M92" s="75"/>
@@ -5484,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>35</v>
@@ -5527,7 +5530,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C94" s="75" t="s">
         <v>35</v>
@@ -5540,7 +5543,7 @@
       <c r="I94" s="55"/>
       <c r="J94" s="55"/>
       <c r="K94" s="75" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L94" s="55"/>
       <c r="M94" s="55"/>
@@ -5572,7 +5575,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C95" s="75" t="s">
         <v>35</v>
@@ -5585,7 +5588,7 @@
       <c r="I95" s="55"/>
       <c r="J95" s="55"/>
       <c r="K95" s="75" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L95" s="55"/>
       <c r="M95" s="55"/>
@@ -5617,7 +5620,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C96" s="75" t="s">
         <v>35</v>
@@ -5630,7 +5633,7 @@
       <c r="I96" s="55"/>
       <c r="J96" s="55"/>
       <c r="K96" s="75" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L96" s="55"/>
       <c r="M96" s="55"/>
@@ -5662,7 +5665,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="74" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C97" s="75" t="s">
         <v>35</v>
@@ -5675,7 +5678,7 @@
       <c r="I97" s="75"/>
       <c r="J97" s="75"/>
       <c r="K97" s="75" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L97" s="75"/>
       <c r="M97" s="75"/>
@@ -5824,7 +5827,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="77" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C101" s="55" t="s">
         <v>35</v>
@@ -5837,7 +5840,7 @@
       <c r="I101" s="55"/>
       <c r="J101" s="55"/>
       <c r="K101" s="55" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L101" s="55"/>
       <c r="M101" s="55"/>
@@ -6221,7 +6224,7 @@
       <c r="D111" s="65"/>
       <c r="E111" s="65"/>
       <c r="F111" s="64" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G111" s="66" t="s">
         <v>254</v>
@@ -6268,7 +6271,7 @@
       <c r="D112" s="65"/>
       <c r="E112" s="65"/>
       <c r="F112" s="64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G112" s="66" t="s">
         <v>254</v>
@@ -6315,7 +6318,7 @@
       <c r="D113" s="66"/>
       <c r="E113" s="66"/>
       <c r="F113" s="64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G113" s="64" t="s">
         <v>251</v>
@@ -6362,7 +6365,7 @@
       <c r="D114" s="65"/>
       <c r="E114" s="65"/>
       <c r="F114" s="64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G114" s="66" t="s">
         <v>254</v>
@@ -6409,7 +6412,7 @@
       <c r="D115" s="65"/>
       <c r="E115" s="65"/>
       <c r="F115" s="64" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G115" s="66" t="s">
         <v>254</v>
@@ -6456,7 +6459,7 @@
       <c r="D116" s="65"/>
       <c r="E116" s="65"/>
       <c r="F116" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G116" s="64" t="s">
         <v>251</v>
@@ -6550,7 +6553,7 @@
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
       <c r="F118" s="64" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G118" s="64" t="s">
         <v>254</v>
@@ -6597,7 +6600,7 @@
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="64" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G119" s="64" t="s">
         <v>254</v>
@@ -6644,7 +6647,7 @@
       <c r="D120" s="66"/>
       <c r="E120" s="66"/>
       <c r="F120" s="64" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G120" s="64" t="s">
         <v>254</v>
@@ -6691,7 +6694,7 @@
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
       <c r="F121" s="64" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G121" s="64" t="s">
         <v>254</v>
@@ -6738,7 +6741,7 @@
       <c r="D122" s="66"/>
       <c r="E122" s="66"/>
       <c r="F122" s="64" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G122" s="64" t="s">
         <v>254</v>
@@ -6785,7 +6788,7 @@
       <c r="D123" s="66"/>
       <c r="E123" s="66"/>
       <c r="F123" s="64" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G123" s="64" t="s">
         <v>254</v>
@@ -6832,7 +6835,7 @@
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
       <c r="F124" s="64" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G124" s="64" t="s">
         <v>254</v>
@@ -6879,7 +6882,7 @@
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
       <c r="F125" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G125" s="64" t="s">
         <v>254</v>
@@ -6926,7 +6929,7 @@
       <c r="D126" s="66"/>
       <c r="E126" s="66"/>
       <c r="F126" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G126" s="64" t="s">
         <v>280</v>
@@ -6962,24 +6965,22 @@
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="B127" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="C127" s="64" t="s">
-        <v>282</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C127" s="64"/>
       <c r="D127" s="66"/>
       <c r="E127" s="66"/>
-      <c r="F127" s="64" t="s">
-        <v>289</v>
-      </c>
+      <c r="F127" s="64"/>
       <c r="G127" s="64"/>
       <c r="H127" s="66"/>
       <c r="I127" s="66"/>
       <c r="J127" s="64"/>
-      <c r="K127" s="64"/>
+      <c r="K127" s="82" t="s">
+        <v>407</v>
+      </c>
       <c r="L127" s="66"/>
       <c r="M127" s="66"/>
       <c r="N127" s="66"/>
@@ -7010,15 +7011,15 @@
         <v>239</v>
       </c>
       <c r="B128" s="63" t="s">
-        <v>283</v>
+        <v>408</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="66"/>
       <c r="F128" s="64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G128" s="64"/>
       <c r="H128" s="66"/>
@@ -7052,35 +7053,29 @@
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="B129" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="C129" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="66"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="G129" s="64"/>
-      <c r="H129" s="66"/>
+        <v>63</v>
+      </c>
+      <c r="B129" s="63"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="65"/>
       <c r="I129" s="66"/>
-      <c r="J129" s="64"/>
-      <c r="K129" s="64"/>
+      <c r="J129" s="66"/>
+      <c r="K129" s="66"/>
       <c r="L129" s="66"/>
-      <c r="M129" s="66"/>
-      <c r="N129" s="66"/>
-      <c r="O129" s="66"/>
-      <c r="P129" s="66"/>
-      <c r="Q129" s="66"/>
-      <c r="R129" s="66"/>
-      <c r="S129" s="66"/>
-      <c r="T129" s="66"/>
+      <c r="M129" s="64"/>
+      <c r="N129" s="64"/>
+      <c r="O129" s="64"/>
+      <c r="P129" s="64"/>
+      <c r="Q129" s="64"/>
+      <c r="R129" s="64"/>
+      <c r="S129" s="64"/>
+      <c r="T129" s="64"/>
       <c r="U129" s="66"/>
-      <c r="V129" s="66"/>
+      <c r="V129" s="64"/>
       <c r="W129" s="66"/>
       <c r="X129" s="66"/>
       <c r="Y129" s="66"/>
@@ -7096,67 +7091,65 @@
       <c r="AI129" s="66"/>
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="63"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="64"/>
-      <c r="N130" s="64"/>
-      <c r="O130" s="64"/>
-      <c r="P130" s="64"/>
-      <c r="Q130" s="64"/>
-      <c r="R130" s="64"/>
-      <c r="S130" s="64"/>
-      <c r="T130" s="64"/>
-      <c r="U130" s="66"/>
-      <c r="V130" s="64"/>
-      <c r="W130" s="66"/>
-      <c r="X130" s="66"/>
-      <c r="Y130" s="66"/>
-      <c r="Z130" s="66"/>
-      <c r="AA130" s="66"/>
-      <c r="AB130" s="66"/>
-      <c r="AC130" s="66"/>
-      <c r="AD130" s="66"/>
-      <c r="AE130" s="66"/>
-      <c r="AF130" s="66"/>
-      <c r="AG130" s="66"/>
-      <c r="AH130" s="66"/>
-      <c r="AI130" s="66"/>
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="AE130" s="35"/>
+      <c r="AF130" s="35"/>
+      <c r="AG130" s="35"/>
+      <c r="AH130" s="35"/>
+      <c r="AI130" s="35"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="AE131" s="35"/>
-      <c r="AF131" s="35"/>
-      <c r="AG131" s="35"/>
-      <c r="AH131" s="35"/>
-      <c r="AI131" s="35"/>
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="69"/>
+      <c r="K131" s="70"/>
+      <c r="L131" s="69"/>
+      <c r="M131" s="69"/>
+      <c r="N131" s="69"/>
+      <c r="O131" s="69"/>
+      <c r="P131" s="69"/>
+      <c r="Q131" s="69"/>
+      <c r="R131" s="69"/>
+      <c r="S131" s="69"/>
+      <c r="T131" s="69"/>
+      <c r="U131" s="69"/>
+      <c r="V131" s="69"/>
+      <c r="W131" s="69"/>
+      <c r="X131" s="69"/>
+      <c r="Y131" s="69"/>
+      <c r="Z131" s="69"/>
+      <c r="AA131" s="69"/>
+      <c r="AB131" s="69"/>
+      <c r="AC131" s="69"/>
+      <c r="AD131" s="69"/>
+      <c r="AE131" s="70"/>
+      <c r="AF131" s="69"/>
+      <c r="AG131" s="69"/>
+      <c r="AH131" s="69"/>
+      <c r="AI131" s="69"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="68"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
       <c r="E132" s="69"/>
       <c r="F132" s="69"/>
-      <c r="G132" s="70"/>
+      <c r="G132" s="69"/>
       <c r="H132" s="69"/>
       <c r="I132" s="69"/>
       <c r="J132" s="69"/>
-      <c r="K132" s="70"/>
+      <c r="K132" s="69"/>
       <c r="L132" s="69"/>
       <c r="M132" s="69"/>
       <c r="N132" s="69"/>
@@ -7176,9 +7169,9 @@
       <c r="AB132" s="69"/>
       <c r="AC132" s="69"/>
       <c r="AD132" s="69"/>
-      <c r="AE132" s="70"/>
+      <c r="AE132" s="69"/>
       <c r="AF132" s="69"/>
-      <c r="AG132" s="69"/>
+      <c r="AG132" s="70"/>
       <c r="AH132" s="69"/>
       <c r="AI132" s="69"/>
     </row>
@@ -7553,78 +7546,78 @@
       <c r="AI142" s="69"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="71"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="72"/>
       <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
-      <c r="I143" s="69"/>
-      <c r="J143" s="69"/>
-      <c r="K143" s="69"/>
-      <c r="L143" s="69"/>
-      <c r="M143" s="69"/>
-      <c r="N143" s="69"/>
-      <c r="O143" s="69"/>
-      <c r="P143" s="69"/>
-      <c r="Q143" s="69"/>
-      <c r="R143" s="69"/>
-      <c r="S143" s="69"/>
-      <c r="T143" s="69"/>
-      <c r="U143" s="69"/>
-      <c r="V143" s="69"/>
-      <c r="W143" s="69"/>
-      <c r="X143" s="69"/>
-      <c r="Y143" s="69"/>
-      <c r="Z143" s="69"/>
-      <c r="AA143" s="69"/>
-      <c r="AB143" s="69"/>
-      <c r="AC143" s="69"/>
-      <c r="AD143" s="69"/>
-      <c r="AE143" s="69"/>
-      <c r="AF143" s="69"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="70"/>
+      <c r="I143" s="70"/>
+      <c r="J143" s="70"/>
+      <c r="K143" s="70"/>
+      <c r="L143" s="70"/>
+      <c r="M143" s="70"/>
+      <c r="N143" s="70"/>
+      <c r="O143" s="70"/>
+      <c r="P143" s="70"/>
+      <c r="Q143" s="70"/>
+      <c r="R143" s="70"/>
+      <c r="S143" s="70"/>
+      <c r="T143" s="70"/>
+      <c r="U143" s="70"/>
+      <c r="V143" s="70"/>
+      <c r="W143" s="70"/>
+      <c r="X143" s="70"/>
+      <c r="Y143" s="70"/>
+      <c r="Z143" s="70"/>
+      <c r="AA143" s="70"/>
+      <c r="AB143" s="70"/>
+      <c r="AC143" s="70"/>
+      <c r="AD143" s="70"/>
+      <c r="AE143" s="70"/>
+      <c r="AF143" s="70"/>
       <c r="AG143" s="70"/>
-      <c r="AH143" s="69"/>
-      <c r="AI143" s="69"/>
+      <c r="AH143" s="70"/>
+      <c r="AI143" s="70"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="72"/>
-      <c r="B144" s="72"/>
+      <c r="A144" s="68"/>
+      <c r="B144" s="71"/>
       <c r="C144" s="69"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="70"/>
-      <c r="K144" s="70"/>
-      <c r="L144" s="70"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="70"/>
-      <c r="O144" s="70"/>
-      <c r="P144" s="70"/>
-      <c r="Q144" s="70"/>
-      <c r="R144" s="70"/>
-      <c r="S144" s="70"/>
+      <c r="D144" s="69"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="69"/>
+      <c r="M144" s="69"/>
+      <c r="N144" s="69"/>
+      <c r="O144" s="69"/>
+      <c r="P144" s="69"/>
+      <c r="Q144" s="69"/>
+      <c r="R144" s="69"/>
+      <c r="S144" s="69"/>
       <c r="T144" s="70"/>
-      <c r="U144" s="70"/>
-      <c r="V144" s="70"/>
-      <c r="W144" s="70"/>
-      <c r="X144" s="70"/>
-      <c r="Y144" s="70"/>
-      <c r="Z144" s="70"/>
-      <c r="AA144" s="70"/>
-      <c r="AB144" s="70"/>
-      <c r="AC144" s="70"/>
-      <c r="AD144" s="70"/>
-      <c r="AE144" s="70"/>
-      <c r="AF144" s="70"/>
+      <c r="U144" s="69"/>
+      <c r="V144" s="69"/>
+      <c r="W144" s="69"/>
+      <c r="X144" s="69"/>
+      <c r="Y144" s="69"/>
+      <c r="Z144" s="69"/>
+      <c r="AA144" s="69"/>
+      <c r="AB144" s="69"/>
+      <c r="AC144" s="69"/>
+      <c r="AD144" s="69"/>
+      <c r="AE144" s="69"/>
+      <c r="AF144" s="69"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="70"/>
-      <c r="AI144" s="70"/>
+      <c r="AH144" s="69"/>
+      <c r="AI144" s="69"/>
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
@@ -7775,41 +7768,41 @@
       <c r="AI148" s="69"/>
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="68"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="69"/>
-      <c r="G149" s="69"/>
-      <c r="H149" s="69"/>
-      <c r="I149" s="69"/>
-      <c r="J149" s="69"/>
-      <c r="K149" s="69"/>
-      <c r="L149" s="69"/>
-      <c r="M149" s="69"/>
-      <c r="N149" s="69"/>
-      <c r="O149" s="69"/>
-      <c r="P149" s="69"/>
-      <c r="Q149" s="69"/>
-      <c r="R149" s="69"/>
-      <c r="S149" s="69"/>
+      <c r="A149" s="72"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="70"/>
+      <c r="E149" s="70"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="70"/>
+      <c r="I149" s="70"/>
+      <c r="J149" s="70"/>
+      <c r="K149" s="70"/>
+      <c r="L149" s="70"/>
+      <c r="M149" s="70"/>
+      <c r="N149" s="70"/>
+      <c r="O149" s="70"/>
+      <c r="P149" s="70"/>
+      <c r="Q149" s="70"/>
+      <c r="R149" s="70"/>
+      <c r="S149" s="70"/>
       <c r="T149" s="70"/>
-      <c r="U149" s="69"/>
-      <c r="V149" s="69"/>
-      <c r="W149" s="69"/>
-      <c r="X149" s="69"/>
-      <c r="Y149" s="69"/>
-      <c r="Z149" s="69"/>
-      <c r="AA149" s="69"/>
-      <c r="AB149" s="69"/>
-      <c r="AC149" s="69"/>
-      <c r="AD149" s="69"/>
-      <c r="AE149" s="69"/>
-      <c r="AF149" s="69"/>
+      <c r="U149" s="70"/>
+      <c r="V149" s="70"/>
+      <c r="W149" s="70"/>
+      <c r="X149" s="70"/>
+      <c r="Y149" s="70"/>
+      <c r="Z149" s="70"/>
+      <c r="AA149" s="70"/>
+      <c r="AB149" s="70"/>
+      <c r="AC149" s="70"/>
+      <c r="AD149" s="70"/>
+      <c r="AE149" s="70"/>
+      <c r="AF149" s="70"/>
       <c r="AG149" s="70"/>
-      <c r="AH149" s="69"/>
-      <c r="AI149" s="69"/>
+      <c r="AH149" s="70"/>
+      <c r="AI149" s="70"/>
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="72"/>
@@ -7848,53 +7841,16 @@
       <c r="AH150" s="70"/>
       <c r="AI150" s="70"/>
     </row>
-    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="72"/>
-      <c r="B151" s="72"/>
-      <c r="C151" s="70"/>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="70"/>
-      <c r="H151" s="70"/>
-      <c r="I151" s="70"/>
-      <c r="J151" s="70"/>
-      <c r="K151" s="70"/>
-      <c r="L151" s="70"/>
-      <c r="M151" s="70"/>
-      <c r="N151" s="70"/>
-      <c r="O151" s="70"/>
-      <c r="P151" s="70"/>
-      <c r="Q151" s="70"/>
-      <c r="R151" s="70"/>
-      <c r="S151" s="70"/>
-      <c r="T151" s="70"/>
-      <c r="U151" s="70"/>
-      <c r="V151" s="70"/>
-      <c r="W151" s="70"/>
-      <c r="X151" s="70"/>
-      <c r="Y151" s="70"/>
-      <c r="Z151" s="70"/>
-      <c r="AA151" s="70"/>
-      <c r="AB151" s="70"/>
-      <c r="AC151" s="70"/>
-      <c r="AD151" s="70"/>
-      <c r="AE151" s="70"/>
-      <c r="AF151" s="70"/>
-      <c r="AG151" s="70"/>
-      <c r="AH151" s="70"/>
-      <c r="AI151" s="70"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E80:E103 I105:I151 I84:I103 D23:E23 I80 D32:E78">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E80:E103 I84:I103 D23:E23 I80 D32:E78 I105:I150">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J22">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A105:A130 A80:A103 A24:A31">
+    <dataValidation type="list" allowBlank="1" sqref="A80:A103 A24:A31 A105:A129">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7915,13 +7871,13 @@
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="16" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="16" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7945,7 +7901,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
@@ -7969,7 +7925,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
@@ -7980,7 +7936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>200</v>
       </c>
@@ -7991,7 +7947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>200</v>
       </c>
@@ -8002,7 +7958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>200</v>
       </c>
@@ -8013,7 +7969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>203</v>
       </c>
@@ -8024,7 +7980,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>203</v>
       </c>
@@ -8035,7 +7991,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>210</v>
       </c>
@@ -8046,7 +8002,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>210</v>
       </c>
@@ -8057,7 +8013,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>210</v>
       </c>
@@ -8068,7 +8024,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>210</v>
       </c>
@@ -8079,7 +8035,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>229</v>
       </c>
@@ -8090,7 +8046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>229</v>
       </c>
@@ -8101,15 +8057,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -8134,15 +8090,15 @@
       <c r="X15" s="52"/>
       <c r="Y15" s="52"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -8167,9 +8123,9 @@
       <c r="X16" s="52"/>
       <c r="Y16" s="52"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>53</v>
@@ -8200,397 +8156,397 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C21" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="20"/>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="20"/>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="20"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="20"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="20"/>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="20"/>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="20"/>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="20"/>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="20"/>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="20"/>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="20"/>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="20"/>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="20"/>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="20"/>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="20"/>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="20"/>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="20"/>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="20"/>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="20"/>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="20"/>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="20"/>
     </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="20"/>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="20"/>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="20"/>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="20"/>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="20"/>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="20"/>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="20"/>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="20"/>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="20"/>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="20"/>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="20"/>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="20"/>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="20"/>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="20"/>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="20"/>
     </row>
@@ -8611,15 +8567,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8661,19 +8617,19 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.7414943287</v>
+        <v>44145.628977430555</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>
@@ -8719,13 +8675,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="23" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="23" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8768,7 +8724,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -8799,7 +8755,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -8830,7 +8786,7 @@
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8855,7 +8811,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>58</v>
       </c>
@@ -8886,7 +8842,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -8917,7 +8873,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>58</v>
       </c>
@@ -8948,7 +8904,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -8979,7 +8935,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
@@ -9010,7 +8966,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -9035,7 +8991,7 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
@@ -9066,7 +9022,7 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -9097,7 +9053,7 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>70</v>
       </c>
@@ -9128,7 +9084,7 @@
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>70</v>
       </c>
@@ -9159,7 +9115,7 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -9190,7 +9146,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
@@ -9221,7 +9177,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -9246,7 +9202,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>83</v>
       </c>
@@ -9277,7 +9233,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>83</v>
       </c>
@@ -9308,7 +9264,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>83</v>
       </c>
@@ -9339,7 +9295,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>83</v>
       </c>
@@ -9370,7 +9326,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>83</v>
       </c>
@@ -9401,7 +9357,7 @@
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
@@ -9432,7 +9388,7 @@
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -9457,7 +9413,7 @@
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>86</v>
       </c>
@@ -9488,7 +9444,7 @@
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>86</v>
       </c>
@@ -9519,7 +9475,7 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>86</v>
       </c>
@@ -9550,7 +9506,7 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
@@ -9581,7 +9537,7 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>86</v>
       </c>
@@ -9612,7 +9568,7 @@
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9637,7 +9593,7 @@
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>97</v>
       </c>
@@ -9668,7 +9624,7 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>97</v>
       </c>
@@ -9699,7 +9655,7 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9724,7 +9680,7 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -9736,7 +9692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -9748,7 +9704,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -9760,7 +9716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -9772,7 +9728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -9784,7 +9740,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -9796,7 +9752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -9808,7 +9764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -9820,7 +9776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -9832,7 +9788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -9843,13 +9799,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -9861,7 +9817,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -9873,13 +9829,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>113</v>
       </c>
@@ -9910,7 +9866,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>113</v>
       </c>
@@ -9941,8 +9897,8 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -9953,7 +9909,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -9964,7 +9920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -9975,7 +9931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -9986,7 +9942,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -9997,7 +9953,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -10008,8 +9964,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>130</v>
       </c>
@@ -10020,7 +9976,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>130</v>
       </c>
@@ -10031,7 +9987,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>130</v>
       </c>
@@ -10042,7 +9998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>130</v>
       </c>
@@ -10053,8 +10009,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>139</v>
       </c>
@@ -10065,7 +10021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>139</v>
       </c>
@@ -10076,7 +10032,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>139</v>
       </c>
@@ -10087,7 +10043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>139</v>
       </c>
@@ -10098,7 +10054,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>139</v>
       </c>
@@ -10109,8 +10065,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -10121,7 +10077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -10132,8 +10088,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -10144,7 +10100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -10155,7 +10111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -10166,932 +10122,932 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ebs_with_tracing/forms/app/hbc_followup.xlsx
+++ b/ebs_with_tracing/forms/app/hbc_followup.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="410">
   <si>
     <t>list_name</t>
   </si>
@@ -1953,7 +1953,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7018,9 +7018,7 @@
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="66"/>
-      <c r="F128" s="64" t="s">
-        <v>283</v>
-      </c>
+      <c r="F128" s="64"/>
       <c r="G128" s="64"/>
       <c r="H128" s="66"/>
       <c r="I128" s="66"/>
@@ -8626,7 +8624,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44145.628977430555</v>
+        <v>44145.648263078707</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>337</v>

--- a/ebs_with_tracing/forms/app/hbc_followup.xlsx
+++ b/ebs_with_tracing/forms/app/hbc_followup.xlsx
@@ -1953,7 +1953,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44145.648263078707</v>
+        <v>44145.650093750002</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>337</v>
